--- a/src/test/resources/visitExcelReferenceTest.xlsx
+++ b/src/test/resources/visitExcelReferenceTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\metadata-api\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\metadata_rest_api\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A88062B-7168-47FC-82C8-29C3DA230772}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EEE3BA-289C-4775-9C36-3785F7F7D421}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -549,6 +549,9 @@
   </si>
   <si>
     <t>Seitenzahl</t>
+  </si>
+  <si>
+    <t>TitelReferenz</t>
   </si>
 </sst>
 </file>
@@ -1997,7 +2000,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2031,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">

--- a/src/test/resources/visitExcelReferenceTest.xlsx
+++ b/src/test/resources/visitExcelReferenceTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\metadata_rest_api\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\test_version\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EEE3BA-289C-4775-9C36-3785F7F7D421}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1F25D4-C0A7-4B4C-8868-B34A4C482A43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -2000,7 +2000,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2086,8 +2086,8 @@
       <c r="A11" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="144" t="s">
-        <v>81</v>
+      <c r="B11" s="144">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">

--- a/src/test/resources/visitExcelReferenceTest.xlsx
+++ b/src/test/resources/visitExcelReferenceTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\Uni\HIWI\test_version\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1F25D4-C0A7-4B4C-8868-B34A4C482A43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341CA298-55FB-4261-83E8-1FB3475E5D22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="174">
   <si>
     <t>ID</t>
   </si>
@@ -522,9 +522,6 @@
   </si>
   <si>
     <t>Abbildung</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>Ütitel</t>
@@ -558,19 +555,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -909,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -956,35 +947,34 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -992,17 +982,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1012,13 +1002,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1026,30 +1016,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1418,13 +1408,13 @@
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="142"/>
+      <c r="B7" s="141"/>
     </row>
     <row r="8" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="143"/>
+      <c r="B8" s="142"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1507,7 +1497,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+            <xm:f>Reference!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B16:SG16</xm:sqref>
         </x14:dataValidation>
@@ -1633,7 +1623,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+            <xm:f>Reference!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B15:SG15</xm:sqref>
         </x14:dataValidation>
@@ -1982,7 +1972,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000014000000}">
           <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+            <xm:f>Reference!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B52:SG52</xm:sqref>
         </x14:dataValidation>
@@ -1994,13 +1984,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2010,147 +2000,147 @@
   <sheetData>
     <row r="1" spans="1:2" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B4" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B8" s="52">
         <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="143" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="144" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="B10" s="143">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="144">
-        <v>23</v>
+        <v>82</v>
+      </c>
+      <c r="B11" s="143" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="144" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="B12" s="143" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="144" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="144" t="s">
-        <v>167</v>
+      <c r="B13" s="143" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="53" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="54" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="B15" s="54">
+        <v>2019</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="55">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="56">
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18">
-        <v>22</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="56" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" s="58" t="s">
         <v>169</v>
@@ -2158,7 +2148,7 @@
     </row>
     <row r="21" spans="1:2" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" s="59" t="s">
         <v>170</v>
@@ -2166,50 +2156,42 @@
     </row>
     <row r="22" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="64" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="64">
+      <c r="B25" s="63">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="145" t="s">
-        <v>172</v>
+      <c r="B26" s="144" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2221,43 +2203,43 @@
           <x14:formula1>
             <xm:f>Person!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B7:SG7 B23:SG23</xm:sqref>
+          <xm:sqref>B6:SG6 B22:SG22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>Place!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B8:SG8 B25:SG25</xm:sqref>
+          <xm:sqref>B7:SG7 B24:SG24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>Institution!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B13:SG14</xm:sqref>
+          <xm:sqref>B12:SG13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000004000000}">
           <x14:formula1>
             <xm:f>Object!$B$1:$XFD$1</xm:f>
           </x14:formula1>
+          <xm:sqref>B19:SG19</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000005000000}">
+          <x14:formula1>
+            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
           <xm:sqref>B20:SG20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000005000000}">
-          <x14:formula1>
-            <xm:f>Architecture!$B$1:$XFD$1</xm:f>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000006000000}">
+          <x14:formula1>
+            <xm:f>Group!$B$1:$XFD$1</xm:f>
           </x14:formula1>
           <xm:sqref>B21:SG21</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000006000000}">
-          <x14:formula1>
-            <xm:f>Group!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B22:SG22</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0300-000008000000}">
           <x14:formula1>
             <xm:f>Activity!$B$1:$XFD$1</xm:f>
           </x14:formula1>
-          <xm:sqref>B24:SG24</xm:sqref>
+          <xm:sqref>B23:SG23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2281,8 +2263,8 @@
     <col min="1" max="1" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:1" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2301,28 +2283,28 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+    <row r="5" spans="1:1" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="65" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="67" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+    <row r="6" spans="1:1" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="66" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="68" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
+    <row r="7" spans="1:1" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+    <row r="8" spans="1:1" s="68" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="68" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="s">
+    <row r="9" spans="1:1" s="69" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="69" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2341,103 +2323,103 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="71" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
+    <row r="13" spans="1:1" s="70" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="70" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="72" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="72" t="s">
+    <row r="14" spans="1:1" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="71" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
+    <row r="15" spans="1:1" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="72" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74" t="s">
+    <row r="16" spans="1:1" s="73" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="73" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
+    <row r="17" spans="1:1" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="74" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="76" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="76" t="s">
+    <row r="18" spans="1:1" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="75" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="77" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="77" t="s">
+    <row r="19" spans="1:1" s="76" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="76" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78" t="s">
+    <row r="20" spans="1:1" s="77" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="77" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="79" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="79" t="s">
+    <row r="21" spans="1:1" s="78" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="78" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="80" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="80" t="s">
+    <row r="22" spans="1:1" s="79" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="79" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="81" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
+    <row r="23" spans="1:1" s="80" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="80" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="82" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="82" t="s">
+    <row r="24" spans="1:1" s="81" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="81" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="83" t="s">
+    <row r="25" spans="1:1" s="82" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="82" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="84" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="84" t="s">
+    <row r="26" spans="1:1" s="83" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="83" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="85" t="s">
+    <row r="27" spans="1:1" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="84" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="86" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="86" t="s">
+    <row r="28" spans="1:1" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="85" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="87" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="87" t="s">
+    <row r="29" spans="1:1" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="86" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="88" t="s">
+    <row r="30" spans="1:1" s="87" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="87" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="89" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="89" t="s">
+    <row r="31" spans="1:1" s="88" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="88" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="90" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="90" t="s">
+    <row r="32" spans="1:1" s="89" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="89" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2461,58 +2443,58 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="91" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="91" t="s">
+    <row r="37" spans="1:1" s="90" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="90" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="92" t="s">
+    <row r="38" spans="1:1" s="91" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="91" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="93" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="93" t="s">
+    <row r="39" spans="1:1" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="92" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="94" t="s">
+    <row r="40" spans="1:1" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="93" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:1" s="95" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="95" t="s">
+    <row r="41" spans="1:1" s="94" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="94" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="96" t="s">
+    <row r="42" spans="1:1" s="95" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="95" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:1" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="97" t="s">
+    <row r="43" spans="1:1" s="96" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="96" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:1" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="98" t="s">
+    <row r="44" spans="1:1" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="97" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:1" s="99" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="99" t="s">
+    <row r="45" spans="1:1" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="98" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:1" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="100" t="s">
+    <row r="46" spans="1:1" s="99" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="99" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:1" s="101" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="101" t="s">
+    <row r="47" spans="1:1" s="100" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="100" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2556,18 +2538,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:1" s="102" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="102" t="s">
+    <row r="56" spans="1:1" s="101" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="101" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:1" s="103" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="103" t="s">
+    <row r="57" spans="1:1" s="102" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="102" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:1" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="104" t="s">
+    <row r="58" spans="1:1" s="103" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="103" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2624,7 +2606,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0400-000011000000}">
           <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+            <xm:f>Reference!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B57:SG57</xm:sqref>
         </x14:dataValidation>
@@ -2650,8 +2632,8 @@
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:1" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2709,7 +2691,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
           <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+            <xm:f>Reference!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B6:SG7</xm:sqref>
         </x14:dataValidation>
@@ -2735,8 +2717,8 @@
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="106" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2765,83 +2747,83 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="107" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
+    <row r="7" spans="1:1" s="106" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="106" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="108" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108" t="s">
+    <row r="8" spans="1:1" s="107" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="107" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:1" s="109" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109" t="s">
+    <row r="9" spans="1:1" s="108" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="108" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110" t="s">
+    <row r="10" spans="1:1" s="109" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="109" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="111" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111" t="s">
+    <row r="11" spans="1:1" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="110" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="112" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112" t="s">
+    <row r="12" spans="1:1" s="111" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="111" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="113" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="113" t="s">
+    <row r="13" spans="1:1" s="112" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="112" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:1" s="114" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="114" t="s">
+    <row r="14" spans="1:1" s="113" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="113" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="115" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="115" t="s">
+    <row r="15" spans="1:1" s="114" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="114" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="116" t="s">
+    <row r="16" spans="1:1" s="115" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="115" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="117" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="117" t="s">
+    <row r="17" spans="1:1" s="116" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="116" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="118" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="118" t="s">
+    <row r="18" spans="1:1" s="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="117" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="119" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="119" t="s">
+    <row r="19" spans="1:1" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="118" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="120" t="s">
+    <row r="20" spans="1:1" s="119" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="119" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="121" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="121" t="s">
+    <row r="21" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="120" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="122" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="122" t="s">
+    <row r="22" spans="1:1" s="121" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="121" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2860,63 +2842,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="123" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="123" t="s">
+    <row r="26" spans="1:1" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="122" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="124" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="124" t="s">
+    <row r="27" spans="1:1" s="123" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="123" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="125" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="125" t="s">
+    <row r="28" spans="1:1" s="124" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="124" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="126" t="s">
+    <row r="29" spans="1:1" s="125" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="125" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="127" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="127" t="s">
+    <row r="30" spans="1:1" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="126" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="128" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="128" t="s">
+    <row r="31" spans="1:1" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="127" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="129" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="129" t="s">
+    <row r="32" spans="1:1" s="128" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="128" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="130" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="130" t="s">
+    <row r="33" spans="1:1" s="129" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="129" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="131" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="131" t="s">
+    <row r="34" spans="1:1" s="130" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="130" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="132" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="132" t="s">
+    <row r="35" spans="1:1" s="131" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="131" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="133" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="133" t="s">
+    <row r="36" spans="1:1" s="132" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="132" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="134" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="134" t="s">
+    <row r="37" spans="1:1" s="133" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="133" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2985,18 +2967,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="135" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="135" t="s">
+    <row r="51" spans="1:1" s="134" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="134" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:1" s="136" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="136" t="s">
+    <row r="52" spans="1:1" s="135" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="135" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:1" s="137" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="137" t="s">
+    <row r="53" spans="1:1" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="136" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3046,7 +3028,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-00000D000000}">
           <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+            <xm:f>Reference!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B52:SG52</xm:sqref>
         </x14:dataValidation>
@@ -3072,8 +3054,8 @@
     <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="138" t="s">
+    <row r="1" spans="1:1" s="137" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3117,18 +3099,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" s="139" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="139" t="s">
+    <row r="10" spans="1:1" s="138" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="138" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="140" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="140" t="s">
+    <row r="11" spans="1:1" s="139" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="139" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="141" t="s">
+    <row r="12" spans="1:1" s="140" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="140" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3165,17 +3147,17 @@
           </x14:formula1>
           <xm:sqref>B6:SG7</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000005000000}">
+          <x14:formula1>
+            <xm:f>Object!$B$1:$XFD$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B14:SG14</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000004000000}">
           <x14:formula1>
-            <xm:f>Reference!$B$1:$XFD$1</xm:f>
+            <xm:f>Reference!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B11:SG11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000005000000}">
-          <x14:formula1>
-            <xm:f>Object!$B$1:$XFD$1</xm:f>
-          </x14:formula1>
-          <xm:sqref>B14:SG14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
